--- a/data/pca/factorExposure/factorExposure_2018-08-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-08-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.03407254396657897</v>
+        <v>-0.03030377421827535</v>
       </c>
       <c r="C2">
-        <v>-0.04564037229077127</v>
+        <v>-0.0136459820630449</v>
       </c>
       <c r="D2">
-        <v>0.03614134630751435</v>
+        <v>-0.01258637039582745</v>
       </c>
       <c r="E2">
-        <v>0.0506729061515852</v>
+        <v>0.01386745256733428</v>
       </c>
       <c r="F2">
-        <v>0.1451790370545068</v>
+        <v>-0.02202308983648893</v>
       </c>
       <c r="G2">
-        <v>0.05551809587727761</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.08172234720398411</v>
+      </c>
+      <c r="H2">
+        <v>0.0159105037614745</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1175715675320173</v>
+        <v>-0.07840031022300005</v>
       </c>
       <c r="C3">
-        <v>-0.01194017988132895</v>
+        <v>0.01730637198085783</v>
       </c>
       <c r="D3">
-        <v>0.04034726574858522</v>
+        <v>-0.01677953717995456</v>
       </c>
       <c r="E3">
-        <v>0.1023291256303931</v>
+        <v>0.007144397351032841</v>
       </c>
       <c r="F3">
-        <v>0.4027528571794097</v>
+        <v>0.01085030738520948</v>
       </c>
       <c r="G3">
-        <v>0.147570872625609</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.273282328887682</v>
+      </c>
+      <c r="H3">
+        <v>0.03581124888792633</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05121720518235336</v>
+        <v>-0.04784820111437902</v>
       </c>
       <c r="C4">
-        <v>-0.03981826180017389</v>
+        <v>-0.001094733644152867</v>
       </c>
       <c r="D4">
-        <v>-0.002707600329799314</v>
+        <v>-0.02998477242451031</v>
       </c>
       <c r="E4">
-        <v>0.06805666363790448</v>
+        <v>-0.02239456716958817</v>
       </c>
       <c r="F4">
-        <v>0.07231082502242796</v>
+        <v>-0.05909125800580173</v>
       </c>
       <c r="G4">
-        <v>0.04782287240898037</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04882105944758184</v>
+      </c>
+      <c r="H4">
+        <v>0.0251117410949958</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01246544327858464</v>
+        <v>-0.03287344867331338</v>
       </c>
       <c r="C6">
-        <v>0.001084197231912001</v>
+        <v>-0.0002927573302965585</v>
       </c>
       <c r="D6">
-        <v>0.01455011092867925</v>
+        <v>-0.03653687204512152</v>
       </c>
       <c r="E6">
-        <v>0.01961133196121143</v>
+        <v>-0.005542869306479185</v>
       </c>
       <c r="F6">
-        <v>0.01174101915618695</v>
+        <v>-0.03698851506626624</v>
       </c>
       <c r="G6">
-        <v>-0.004258258666160304</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01572885210562815</v>
+      </c>
+      <c r="H6">
+        <v>0.05236998059647812</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.0264935979729882</v>
+        <v>-0.02084845222050156</v>
       </c>
       <c r="C7">
-        <v>-0.01775880981511836</v>
+        <v>-0.001553794819270417</v>
       </c>
       <c r="D7">
-        <v>0.02982886827222426</v>
+        <v>-0.01740354547900775</v>
       </c>
       <c r="E7">
-        <v>0.03903587261589574</v>
+        <v>-0.03636104839544744</v>
       </c>
       <c r="F7">
-        <v>0.06283879331332212</v>
+        <v>-0.02253736872032857</v>
       </c>
       <c r="G7">
-        <v>0.0574628119723026</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.03745370100547428</v>
+      </c>
+      <c r="H7">
+        <v>0.01450027071745459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01442315462610229</v>
+        <v>-0.00463321702864788</v>
       </c>
       <c r="C8">
-        <v>-0.0164416378009461</v>
+        <v>0.002274768813789673</v>
       </c>
       <c r="D8">
-        <v>-0.002911993593601377</v>
+        <v>-0.007605598044251541</v>
       </c>
       <c r="E8">
-        <v>0.07423041302656321</v>
+        <v>-0.01188301240074832</v>
       </c>
       <c r="F8">
-        <v>0.08488567165501712</v>
+        <v>-0.02757887838935778</v>
       </c>
       <c r="G8">
-        <v>0.06616941109455873</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.056125187407581</v>
+      </c>
+      <c r="H8">
+        <v>0.005690777211316018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0415387862149857</v>
+        <v>-0.03883835903562865</v>
       </c>
       <c r="C9">
-        <v>-0.03147858733508164</v>
+        <v>0.002523670308819655</v>
       </c>
       <c r="D9">
-        <v>-0.01352353667985637</v>
+        <v>-0.02502697066116601</v>
       </c>
       <c r="E9">
-        <v>0.06890448027517386</v>
+        <v>-0.0192680358509539</v>
       </c>
       <c r="F9">
-        <v>0.06719699300113918</v>
+        <v>-0.03675685486521564</v>
       </c>
       <c r="G9">
-        <v>0.04832920829918354</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.06014154164061002</v>
+      </c>
+      <c r="H9">
+        <v>0.02426305006583389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.05092023757105994</v>
+        <v>-0.09137825524892196</v>
       </c>
       <c r="C10">
-        <v>-0.04138092342522445</v>
+        <v>0.03599969558405794</v>
       </c>
       <c r="D10">
-        <v>-0.01720597902827604</v>
+        <v>0.1473327708843176</v>
       </c>
       <c r="E10">
-        <v>-0.110110489825718</v>
+        <v>0.02340997520945515</v>
       </c>
       <c r="F10">
-        <v>0.0780488304273092</v>
+        <v>0.07274906146218274</v>
       </c>
       <c r="G10">
-        <v>-0.0435933137430647</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02644920534452511</v>
+      </c>
+      <c r="H10">
+        <v>0.002980797203316062</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03337048808670699</v>
+        <v>-0.02357699292475477</v>
       </c>
       <c r="C11">
-        <v>-0.01298381598286633</v>
+        <v>0.0100898215346945</v>
       </c>
       <c r="D11">
-        <v>0.01667974387325544</v>
+        <v>-0.03274769269999277</v>
       </c>
       <c r="E11">
-        <v>0.03509823672809018</v>
+        <v>0.002834281117543207</v>
       </c>
       <c r="F11">
-        <v>0.03329957137733348</v>
+        <v>-0.0223373060776973</v>
       </c>
       <c r="G11">
-        <v>0.0238863951838696</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.03561405429414242</v>
+      </c>
+      <c r="H11">
+        <v>0.02628025707310458</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04090290571754854</v>
+        <v>-0.03265521386822392</v>
       </c>
       <c r="C12">
-        <v>-0.01503415105125711</v>
+        <v>0.009164603475119671</v>
       </c>
       <c r="D12">
-        <v>0.003442006824551866</v>
+        <v>-0.03092446638935576</v>
       </c>
       <c r="E12">
-        <v>0.04350433168161501</v>
+        <v>-0.008281312869295909</v>
       </c>
       <c r="F12">
-        <v>0.01668543298784923</v>
+        <v>-0.02584002084991524</v>
       </c>
       <c r="G12">
-        <v>0.01856310241538628</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.01326581145636308</v>
+      </c>
+      <c r="H12">
+        <v>0.01350524023599708</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01865989940774221</v>
+        <v>-0.02747816539450594</v>
       </c>
       <c r="C13">
-        <v>-0.02370097239888086</v>
+        <v>-0.01130538785288269</v>
       </c>
       <c r="D13">
-        <v>0.03402575618892757</v>
+        <v>-0.004210871825052094</v>
       </c>
       <c r="E13">
-        <v>0.02095998045743189</v>
+        <v>0.01707755146691276</v>
       </c>
       <c r="F13">
-        <v>0.09005676042975964</v>
+        <v>-0.0219925998490753</v>
       </c>
       <c r="G13">
-        <v>0.03409445894655151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.06734049874246291</v>
+      </c>
+      <c r="H13">
+        <v>0.02382632604122944</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01027711500713657</v>
+        <v>-0.01550636553474046</v>
       </c>
       <c r="C14">
-        <v>-0.01809615478592373</v>
+        <v>0.0004236284441650224</v>
       </c>
       <c r="D14">
-        <v>0.003375905689648432</v>
+        <v>-0.002719964744579779</v>
       </c>
       <c r="E14">
-        <v>0.04013635651342091</v>
+        <v>-0.008789709790855254</v>
       </c>
       <c r="F14">
-        <v>0.06323933239295287</v>
+        <v>-0.02427161191305175</v>
       </c>
       <c r="G14">
-        <v>0.06217209011455105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.04440541523390589</v>
+      </c>
+      <c r="H14">
+        <v>-0.01934427427296288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02512366047776903</v>
+        <v>-0.0246104569326393</v>
       </c>
       <c r="C16">
-        <v>-0.01438255739751715</v>
+        <v>0.0106325438287252</v>
       </c>
       <c r="D16">
-        <v>0.01366452284806299</v>
+        <v>-0.02759500538251837</v>
       </c>
       <c r="E16">
-        <v>0.03484114534122572</v>
+        <v>-0.00181321349238408</v>
       </c>
       <c r="F16">
-        <v>0.03789419666256482</v>
+        <v>-0.02418538867681185</v>
       </c>
       <c r="G16">
-        <v>0.02652265120709948</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.03137310332406026</v>
+      </c>
+      <c r="H16">
+        <v>0.02044307760175133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03776053155587098</v>
+        <v>-0.0332089823518803</v>
       </c>
       <c r="C19">
-        <v>-0.01577737854173901</v>
+        <v>0.002231101543815843</v>
       </c>
       <c r="D19">
-        <v>0.01725242648759229</v>
+        <v>-0.01098716652242194</v>
       </c>
       <c r="E19">
-        <v>0.05595770495866138</v>
+        <v>0.000516445485360151</v>
       </c>
       <c r="F19">
-        <v>0.09999107573175217</v>
+        <v>-0.03215288797640285</v>
       </c>
       <c r="G19">
-        <v>0.042908634296557</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.07115390165667421</v>
+      </c>
+      <c r="H19">
+        <v>0.03632966670223089</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.003371643849633177</v>
+        <v>-0.007872317799491066</v>
       </c>
       <c r="C20">
-        <v>-0.02429733981836617</v>
+        <v>-0.006544163934035731</v>
       </c>
       <c r="D20">
-        <v>0.009184177833691409</v>
+        <v>-0.002737411419671795</v>
       </c>
       <c r="E20">
-        <v>0.03310965000132344</v>
+        <v>-0.0008281798981105416</v>
       </c>
       <c r="F20">
-        <v>0.06237774346830746</v>
+        <v>-0.01907432048339451</v>
       </c>
       <c r="G20">
-        <v>0.06357476039506278</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.05089259904083572</v>
+      </c>
+      <c r="H20">
+        <v>-0.01051727204546252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.001305608471470273</v>
+        <v>-0.0242334007025504</v>
       </c>
       <c r="C21">
-        <v>0.00207587251603022</v>
+        <v>-0.003821686695152529</v>
       </c>
       <c r="D21">
-        <v>0.005313928997453386</v>
+        <v>-0.001903058753164766</v>
       </c>
       <c r="E21">
-        <v>0.03546624247583695</v>
+        <v>-0.01167150751535828</v>
       </c>
       <c r="F21">
-        <v>0.07027252260758513</v>
+        <v>-0.00912232539877713</v>
       </c>
       <c r="G21">
-        <v>0.02904190856401268</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.05683902994575055</v>
+      </c>
+      <c r="H21">
+        <v>0.007404207538159267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02963717101022309</v>
+        <v>-0.02358984432200883</v>
       </c>
       <c r="C24">
-        <v>-0.01547532459527124</v>
+        <v>0.005326746663917954</v>
       </c>
       <c r="D24">
-        <v>0.01062765698975074</v>
+        <v>-0.02860796177348248</v>
       </c>
       <c r="E24">
-        <v>0.02656278427905351</v>
+        <v>-0.001733213560858182</v>
       </c>
       <c r="F24">
-        <v>0.03444296942653968</v>
+        <v>-0.01996913970799231</v>
       </c>
       <c r="G24">
-        <v>0.01748802373021427</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02981787784935732</v>
+      </c>
+      <c r="H24">
+        <v>0.02560357314247387</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03214020199761456</v>
+        <v>-0.03473697966023716</v>
       </c>
       <c r="C25">
-        <v>-0.01093875685669365</v>
+        <v>0.004539147464892796</v>
       </c>
       <c r="D25">
-        <v>0.0085367469557907</v>
+        <v>-0.02441821739664307</v>
       </c>
       <c r="E25">
-        <v>0.03711939043572773</v>
+        <v>-0.002128730109561281</v>
       </c>
       <c r="F25">
-        <v>0.0316395101995493</v>
+        <v>-0.02429232636448967</v>
       </c>
       <c r="G25">
-        <v>0.006981086015715105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.03359208168298725</v>
+      </c>
+      <c r="H25">
+        <v>0.02855582767438014</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01892909396200293</v>
+        <v>-0.01980355666805231</v>
       </c>
       <c r="C26">
-        <v>0.002881871586328521</v>
+        <v>-0.01653738848181845</v>
       </c>
       <c r="D26">
-        <v>0.03629648891432754</v>
+        <v>-0.004580985435768925</v>
       </c>
       <c r="E26">
-        <v>0.04219711680727908</v>
+        <v>0.006562442002510604</v>
       </c>
       <c r="F26">
-        <v>0.05548755370414215</v>
+        <v>-0.004768870907426413</v>
       </c>
       <c r="G26">
-        <v>0.03169173311140606</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03782261254856953</v>
+      </c>
+      <c r="H26">
+        <v>-0.003240424200758691</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.07281574595662747</v>
+        <v>-0.03129042950903763</v>
       </c>
       <c r="C27">
-        <v>-0.05294463699331088</v>
+        <v>0.01404212364565544</v>
       </c>
       <c r="D27">
-        <v>0.0005594244996301629</v>
+        <v>-0.009965124241520814</v>
       </c>
       <c r="E27">
-        <v>0.05555880205112485</v>
+        <v>-0.005232449757911695</v>
       </c>
       <c r="F27">
-        <v>0.05519942512900045</v>
+        <v>-0.02631123523402695</v>
       </c>
       <c r="G27">
-        <v>0.05618356323795555</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.02771802520080289</v>
+      </c>
+      <c r="H27">
+        <v>-0.002542736114510187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.07645573190981558</v>
+        <v>-0.1392997673461049</v>
       </c>
       <c r="C28">
-        <v>-0.05946521447654733</v>
+        <v>0.04117374334108956</v>
       </c>
       <c r="D28">
-        <v>-0.0388768234373001</v>
+        <v>0.2195282066691513</v>
       </c>
       <c r="E28">
-        <v>-0.1753484763133301</v>
+        <v>0.02940307185927334</v>
       </c>
       <c r="F28">
-        <v>0.09791651220538579</v>
+        <v>0.09788346030164684</v>
       </c>
       <c r="G28">
-        <v>-0.02444034349725114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.0122572270108696</v>
+      </c>
+      <c r="H28">
+        <v>-0.01175907557773663</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0188176001741608</v>
+        <v>-0.02061031973455843</v>
       </c>
       <c r="C29">
-        <v>-0.02115129908302089</v>
+        <v>0.002951644455888793</v>
       </c>
       <c r="D29">
-        <v>-0.004175479207435923</v>
+        <v>-0.003944791187409243</v>
       </c>
       <c r="E29">
-        <v>0.05823112807673855</v>
+        <v>-0.01058868611497785</v>
       </c>
       <c r="F29">
-        <v>0.04527879268741226</v>
+        <v>-0.02635502883031061</v>
       </c>
       <c r="G29">
-        <v>0.06089746278869593</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03689471235050374</v>
+      </c>
+      <c r="H29">
+        <v>-0.02042989071161947</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.08419377655553809</v>
+        <v>-0.05529005864278243</v>
       </c>
       <c r="C30">
-        <v>-0.0582338446858835</v>
+        <v>-7.470155172939588e-05</v>
       </c>
       <c r="D30">
-        <v>0.03817395680246533</v>
+        <v>-0.05766942119635193</v>
       </c>
       <c r="E30">
-        <v>0.0832655005350761</v>
+        <v>0.0332487894812465</v>
       </c>
       <c r="F30">
-        <v>0.05167442396222628</v>
+        <v>-0.07367802411665346</v>
       </c>
       <c r="G30">
-        <v>0.04668627837557363</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.06447806415198873</v>
+      </c>
+      <c r="H30">
+        <v>0.03479438145588062</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06058606569244629</v>
+        <v>-0.05530490406801536</v>
       </c>
       <c r="C31">
-        <v>-0.01826076081301054</v>
+        <v>0.01828811518827572</v>
       </c>
       <c r="D31">
-        <v>0.04945210224722577</v>
+        <v>-0.02427601998270848</v>
       </c>
       <c r="E31">
-        <v>0.03470934278093814</v>
+        <v>0.009162155166083449</v>
       </c>
       <c r="F31">
-        <v>0.03777204641286822</v>
+        <v>-0.02120447257217332</v>
       </c>
       <c r="G31">
-        <v>0.07828333324412202</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.02503287824597579</v>
+      </c>
+      <c r="H31">
+        <v>-0.01663404290845108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02095186945210838</v>
+        <v>-0.01390668738995166</v>
       </c>
       <c r="C32">
-        <v>-0.03024261710583738</v>
+        <v>0.01688586153468993</v>
       </c>
       <c r="D32">
-        <v>0.002680292409730771</v>
+        <v>0.009178656948896463</v>
       </c>
       <c r="E32">
-        <v>0.06667608714335733</v>
+        <v>-0.01665676235212131</v>
       </c>
       <c r="F32">
-        <v>0.06111302240953406</v>
+        <v>-0.04614926691652953</v>
       </c>
       <c r="G32">
-        <v>0.04774688964225095</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.05635573539267529</v>
+      </c>
+      <c r="H32">
+        <v>0.04115739049396597</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.05238990418763694</v>
+        <v>-0.03952047470695429</v>
       </c>
       <c r="C33">
-        <v>-0.003741617652547655</v>
+        <v>0.00303705857352676</v>
       </c>
       <c r="D33">
-        <v>0.04703278945159578</v>
+        <v>-0.03151159142896213</v>
       </c>
       <c r="E33">
-        <v>0.07391587667891071</v>
+        <v>0.02262475698069981</v>
       </c>
       <c r="F33">
-        <v>0.08886564785267777</v>
+        <v>-0.01459768767456211</v>
       </c>
       <c r="G33">
-        <v>0.04993856347671323</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.06360900528165653</v>
+      </c>
+      <c r="H33">
+        <v>0.01483786181778023</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03134863085147129</v>
+        <v>-0.02734482702715112</v>
       </c>
       <c r="C34">
-        <v>-0.01683186907935452</v>
+        <v>0.01879726601824694</v>
       </c>
       <c r="D34">
-        <v>0.01330645953000117</v>
+        <v>-0.02886067662996912</v>
       </c>
       <c r="E34">
-        <v>0.04414018948036642</v>
+        <v>-0.006744670380419939</v>
       </c>
       <c r="F34">
-        <v>0.0368048822928345</v>
+        <v>-0.02482815976480755</v>
       </c>
       <c r="G34">
-        <v>0.01627242700806819</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.02788883336571966</v>
+      </c>
+      <c r="H34">
+        <v>0.02395525929969714</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01285348002629784</v>
+        <v>-0.02043675083617739</v>
       </c>
       <c r="C36">
-        <v>-0.01026158641164902</v>
+        <v>-0.002564965952156918</v>
       </c>
       <c r="D36">
-        <v>0.002619138047939924</v>
+        <v>0.002517600239051605</v>
       </c>
       <c r="E36">
-        <v>0.02924983070950034</v>
+        <v>-0.002039426908146613</v>
       </c>
       <c r="F36">
-        <v>0.02255651252510925</v>
+        <v>-0.008246468855453671</v>
       </c>
       <c r="G36">
-        <v>0.03662453716589939</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02032372121985216</v>
+      </c>
+      <c r="H36">
+        <v>-0.004573598607448922</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0007157288082117579</v>
+        <v>-0.01880872457619192</v>
       </c>
       <c r="C38">
-        <v>0.006388878752512487</v>
+        <v>0.01688965438847455</v>
       </c>
       <c r="D38">
-        <v>-0.01468076182515795</v>
+        <v>0.002300818455474418</v>
       </c>
       <c r="E38">
-        <v>-0.0005702757813342666</v>
+        <v>-0.003911879082589312</v>
       </c>
       <c r="F38">
-        <v>0.009211631181575771</v>
+        <v>-0.009833577823134414</v>
       </c>
       <c r="G38">
-        <v>-0.01831779136325851</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02957544117060945</v>
+      </c>
+      <c r="H38">
+        <v>0.02250073989301485</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03826680014707097</v>
+        <v>-0.02540079321118639</v>
       </c>
       <c r="C39">
-        <v>-0.02111041543857366</v>
+        <v>0.003378832454273542</v>
       </c>
       <c r="D39">
-        <v>0.03208371191634476</v>
+        <v>-0.06736704706438622</v>
       </c>
       <c r="E39">
-        <v>0.04608597198291989</v>
+        <v>0.0002247192589236805</v>
       </c>
       <c r="F39">
-        <v>0.04344776079081109</v>
+        <v>-0.04185274511060518</v>
       </c>
       <c r="G39">
-        <v>0.02344047440132662</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.05578226024093792</v>
+      </c>
+      <c r="H39">
+        <v>0.04915673568473126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.02741890401576619</v>
+        <v>-0.02719404819144963</v>
       </c>
       <c r="C40">
-        <v>-0.04430017113253147</v>
+        <v>0.001565374059159343</v>
       </c>
       <c r="D40">
-        <v>0.05562088805053947</v>
+        <v>-0.02028266445029894</v>
       </c>
       <c r="E40">
-        <v>0.03594917693207025</v>
+        <v>0.01875067862745831</v>
       </c>
       <c r="F40">
-        <v>0.08588272670229777</v>
+        <v>-0.03741376804231622</v>
       </c>
       <c r="G40">
-        <v>0.05123907436451183</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.04497214823839268</v>
+      </c>
+      <c r="H40">
+        <v>0.04400140022915862</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.002285961375615033</v>
+        <v>-0.009115231393169887</v>
       </c>
       <c r="C41">
-        <v>0.008121863690519119</v>
+        <v>-0.0004465660129387953</v>
       </c>
       <c r="D41">
-        <v>0.006641958330485148</v>
+        <v>0.009310084904973814</v>
       </c>
       <c r="E41">
-        <v>0.01955072368889891</v>
+        <v>0.002512137161764402</v>
       </c>
       <c r="F41">
-        <v>0.01326190905726248</v>
+        <v>0.003331893578233856</v>
       </c>
       <c r="G41">
-        <v>0.05769024901263855</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.00905523378433455</v>
+      </c>
+      <c r="H41">
+        <v>-0.01767662185751627</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3856688890396127</v>
+        <v>-0.2042718395309251</v>
       </c>
       <c r="C42">
-        <v>0.8821982271386086</v>
+        <v>-0.09184040366201868</v>
       </c>
       <c r="D42">
-        <v>0.1792360431720584</v>
+        <v>-0.5465222317550139</v>
       </c>
       <c r="E42">
-        <v>-0.1017743139911091</v>
+        <v>0.1072979298590045</v>
       </c>
       <c r="F42">
-        <v>-0.04065703499504048</v>
+        <v>0.7842951238478215</v>
       </c>
       <c r="G42">
-        <v>0.02076102002673969</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.08260790018914539</v>
+      </c>
+      <c r="H42">
+        <v>0.01772880584926935</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.007831546595756527</v>
+        <v>-0.008618195096303877</v>
       </c>
       <c r="C43">
-        <v>0.004007357983991472</v>
+        <v>-0.001953030028740123</v>
       </c>
       <c r="D43">
-        <v>0.009293343167014419</v>
+        <v>0.01254191133901885</v>
       </c>
       <c r="E43">
-        <v>0.02228960251128734</v>
+        <v>0.007640747424734977</v>
       </c>
       <c r="F43">
-        <v>0.03319317666131028</v>
+        <v>0.007913739884379312</v>
       </c>
       <c r="G43">
-        <v>0.05096723483252134</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.01802425225890055</v>
+      </c>
+      <c r="H43">
+        <v>-0.0099120688977114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01770562412696609</v>
+        <v>-0.01495168758387358</v>
       </c>
       <c r="C44">
-        <v>0.000528678496375902</v>
+        <v>0.001160414624804931</v>
       </c>
       <c r="D44">
-        <v>0.02470196112722511</v>
+        <v>-0.02309607698076961</v>
       </c>
       <c r="E44">
-        <v>0.06944735958693989</v>
+        <v>-0.001753122702486513</v>
       </c>
       <c r="F44">
-        <v>0.1747246867648843</v>
+        <v>-0.004379044673534864</v>
       </c>
       <c r="G44">
-        <v>0.1577803462202446</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.08873001478836777</v>
+      </c>
+      <c r="H44">
+        <v>0.01260729986930007</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01791100933951692</v>
+        <v>-0.02064857940858109</v>
       </c>
       <c r="C46">
-        <v>-0.02040274583592738</v>
+        <v>-0.0009605009991049495</v>
       </c>
       <c r="D46">
-        <v>0.01969361087371285</v>
+        <v>-0.007690695286229452</v>
       </c>
       <c r="E46">
-        <v>0.06573143270981016</v>
+        <v>0.001184777135626679</v>
       </c>
       <c r="F46">
-        <v>0.06534215037538459</v>
+        <v>-0.03151498235929519</v>
       </c>
       <c r="G46">
-        <v>0.05765979610474683</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.05752314980609457</v>
+      </c>
+      <c r="H46">
+        <v>-0.01507090289727369</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09413343581918217</v>
+        <v>-0.07623084148525731</v>
       </c>
       <c r="C47">
-        <v>-0.0368184659302921</v>
+        <v>0.03536646890493467</v>
       </c>
       <c r="D47">
-        <v>0.02519433135975797</v>
+        <v>-0.03011542228829911</v>
       </c>
       <c r="E47">
-        <v>0.03737449023216827</v>
+        <v>0.00441018103642932</v>
       </c>
       <c r="F47">
-        <v>0.00389882450742073</v>
+        <v>-0.03192188792266788</v>
       </c>
       <c r="G47">
-        <v>0.09053149268588639</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.008492315638932215</v>
+      </c>
+      <c r="H47">
+        <v>-0.03149125991452928</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01335644082056156</v>
+        <v>-0.02049870491321432</v>
       </c>
       <c r="C48">
-        <v>-0.004614877275694702</v>
+        <v>0.007406942542031339</v>
       </c>
       <c r="D48">
-        <v>0.01701753344329719</v>
+        <v>-0.004225640683795885</v>
       </c>
       <c r="E48">
-        <v>0.0411065637963685</v>
+        <v>0.002089741560035121</v>
       </c>
       <c r="F48">
-        <v>0.03640684171210989</v>
+        <v>-0.0111427345776102</v>
       </c>
       <c r="G48">
-        <v>0.02004521874510861</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02770513784594969</v>
+      </c>
+      <c r="H48">
+        <v>-0.001558835278694097</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08797621253685417</v>
+        <v>-0.06921782491238321</v>
       </c>
       <c r="C50">
-        <v>-0.02010443044107584</v>
+        <v>0.02959354935983951</v>
       </c>
       <c r="D50">
-        <v>0.03858048355205776</v>
+        <v>-0.04079198517834341</v>
       </c>
       <c r="E50">
-        <v>0.05674068922078244</v>
+        <v>-0.01018208472446439</v>
       </c>
       <c r="F50">
-        <v>0.02508003960084014</v>
+        <v>-0.02844070669544415</v>
       </c>
       <c r="G50">
-        <v>0.04157035478655312</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.02542491118431564</v>
+      </c>
+      <c r="H50">
+        <v>-0.02760899160618557</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02250287124830767</v>
+        <v>-0.02172505129428219</v>
       </c>
       <c r="C51">
-        <v>-0.01449580199775701</v>
+        <v>0.001389836726623285</v>
       </c>
       <c r="D51">
-        <v>0.02275738309371527</v>
+        <v>0.008602402460758421</v>
       </c>
       <c r="E51">
-        <v>0.01879697259385559</v>
+        <v>0.007656026745515994</v>
       </c>
       <c r="F51">
-        <v>0.1478996483552514</v>
+        <v>0.002741239741567052</v>
       </c>
       <c r="G51">
-        <v>0.05303836674592045</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.07443880996817968</v>
+      </c>
+      <c r="H51">
+        <v>0.0225935483284601</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1022636843958035</v>
+        <v>-0.09506343969571367</v>
       </c>
       <c r="C53">
-        <v>-0.05044913566257682</v>
+        <v>0.04346748265765388</v>
       </c>
       <c r="D53">
-        <v>0.04311141590329799</v>
+        <v>-0.05905828507460049</v>
       </c>
       <c r="E53">
-        <v>0.04471224359611071</v>
+        <v>0.0002874643563105455</v>
       </c>
       <c r="F53">
-        <v>-0.0524002379982548</v>
+        <v>-0.06398268881221222</v>
       </c>
       <c r="G53">
-        <v>0.03671518656966175</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.05661448040417931</v>
+      </c>
+      <c r="H53">
+        <v>-0.03569237151127637</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01488019496921445</v>
+        <v>-0.02327210302084515</v>
       </c>
       <c r="C54">
-        <v>-0.03041806966369124</v>
+        <v>0.01355447423179717</v>
       </c>
       <c r="D54">
-        <v>0.001381336054257802</v>
+        <v>0.02188587564237414</v>
       </c>
       <c r="E54">
-        <v>0.03539811833711628</v>
+        <v>-0.003310706880399848</v>
       </c>
       <c r="F54">
-        <v>0.06728804201289607</v>
+        <v>-0.01102916950863856</v>
       </c>
       <c r="G54">
-        <v>0.07354552344666791</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.03796465057877937</v>
+      </c>
+      <c r="H54">
+        <v>-0.01625272336453799</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1003217567341032</v>
+        <v>-0.0817542997107983</v>
       </c>
       <c r="C55">
-        <v>-0.0352738801089694</v>
+        <v>0.03829297891371546</v>
       </c>
       <c r="D55">
-        <v>0.004064048528400295</v>
+        <v>-0.05869361264013662</v>
       </c>
       <c r="E55">
-        <v>0.05223407835163554</v>
+        <v>-0.01119228931239848</v>
       </c>
       <c r="F55">
-        <v>-0.0469795079403377</v>
+        <v>-0.05348389374522213</v>
       </c>
       <c r="G55">
-        <v>0.07397548848287074</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.0362714882469902</v>
+      </c>
+      <c r="H55">
+        <v>-0.04674313049268009</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1442378015306504</v>
+        <v>-0.1292352537464973</v>
       </c>
       <c r="C56">
-        <v>-0.08622173463893505</v>
+        <v>0.06547082824296162</v>
       </c>
       <c r="D56">
-        <v>0.02937008781913667</v>
+        <v>-0.07801694174630666</v>
       </c>
       <c r="E56">
-        <v>0.05343646844432057</v>
+        <v>-0.004409467071357187</v>
       </c>
       <c r="F56">
-        <v>-0.1591730598164432</v>
+        <v>-0.09199784631349632</v>
       </c>
       <c r="G56">
-        <v>0.007212314777722532</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.1031480233790038</v>
+      </c>
+      <c r="H56">
+        <v>-0.02842017505968315</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04390955260225136</v>
+        <v>-0.04601715501590643</v>
       </c>
       <c r="C57">
-        <v>-0.01147002404334912</v>
+        <v>-0.005380073651673302</v>
       </c>
       <c r="D57">
-        <v>0.0350640257904906</v>
+        <v>-0.01979483523645173</v>
       </c>
       <c r="E57">
-        <v>0.01065842282391278</v>
+        <v>0.01096510492545425</v>
       </c>
       <c r="F57">
-        <v>0.07414813858867991</v>
+        <v>-0.02352733949100352</v>
       </c>
       <c r="G57">
-        <v>0.03758124540408411</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.06367301453723549</v>
+      </c>
+      <c r="H57">
+        <v>0.009084710085026171</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1879594890422531</v>
+        <v>-0.1419799247783461</v>
       </c>
       <c r="C58">
-        <v>-0.0378205039252598</v>
+        <v>0.04901376754080741</v>
       </c>
       <c r="D58">
-        <v>0.1137804495998552</v>
+        <v>-0.1347312823753191</v>
       </c>
       <c r="E58">
-        <v>0.2690186898556657</v>
+        <v>0.1050292899412763</v>
       </c>
       <c r="F58">
-        <v>0.2204809367459419</v>
+        <v>-0.04499671910446458</v>
       </c>
       <c r="G58">
-        <v>-0.0460790865908649</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.6704457057716353</v>
+      </c>
+      <c r="H58">
+        <v>-0.5563167860806789</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.07160699327632941</v>
+        <v>-0.1420715127492653</v>
       </c>
       <c r="C59">
-        <v>-0.07972616091693524</v>
+        <v>0.0483616601833784</v>
       </c>
       <c r="D59">
-        <v>-0.02607619861675833</v>
+        <v>0.2168163692713627</v>
       </c>
       <c r="E59">
-        <v>-0.1414772218807417</v>
+        <v>0.04702032892388804</v>
       </c>
       <c r="F59">
-        <v>0.09350290943084263</v>
+        <v>0.07908886982515813</v>
       </c>
       <c r="G59">
-        <v>-0.0348781902591195</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.02185682287814107</v>
+      </c>
+      <c r="H59">
+        <v>0.01993005550979812</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1673791063363643</v>
+        <v>-0.1698169897270483</v>
       </c>
       <c r="C60">
-        <v>-0.06473376404632737</v>
+        <v>0.04827555713977758</v>
       </c>
       <c r="D60">
-        <v>0.07248022023435037</v>
+        <v>-0.01383454864447449</v>
       </c>
       <c r="E60">
-        <v>0.03532914619634395</v>
+        <v>0.05587296964497237</v>
       </c>
       <c r="F60">
-        <v>0.1312602183544818</v>
+        <v>-0.05830445044002874</v>
       </c>
       <c r="G60">
-        <v>-0.3286419827802519</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.1382638164252256</v>
+      </c>
+      <c r="H60">
+        <v>0.3736894719971837</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02015459776592814</v>
+        <v>-0.02325226396798633</v>
       </c>
       <c r="C61">
-        <v>-0.006861790949681142</v>
+        <v>0.007873100034343912</v>
       </c>
       <c r="D61">
-        <v>0.009047921224758696</v>
+        <v>-0.03658060516128277</v>
       </c>
       <c r="E61">
-        <v>0.02567321199941387</v>
+        <v>-0.004273274332767479</v>
       </c>
       <c r="F61">
-        <v>0.0223403474529782</v>
+        <v>-0.02855718479856749</v>
       </c>
       <c r="G61">
-        <v>0.02473470019477447</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.03144343284492211</v>
+      </c>
+      <c r="H61">
+        <v>0.03661192724467556</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01584563471414125</v>
+        <v>-0.0135309259209192</v>
       </c>
       <c r="C63">
-        <v>-0.009123823317803821</v>
+        <v>-0.00100532935147906</v>
       </c>
       <c r="D63">
-        <v>0.01402252093039213</v>
+        <v>-0.007234150575047551</v>
       </c>
       <c r="E63">
-        <v>0.0420366469309576</v>
+        <v>-0.002835388925693007</v>
       </c>
       <c r="F63">
-        <v>0.00734589852006971</v>
+        <v>-0.0185527746986518</v>
       </c>
       <c r="G63">
-        <v>0.04418232795103361</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01443955501021926</v>
+      </c>
+      <c r="H63">
+        <v>-0.01261653609113142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03624154980816872</v>
+        <v>-0.04337504109240445</v>
       </c>
       <c r="C64">
-        <v>-0.02394102789388821</v>
+        <v>0.01394299340464433</v>
       </c>
       <c r="D64">
-        <v>-0.01883373453036649</v>
+        <v>-0.03148514325260434</v>
       </c>
       <c r="E64">
-        <v>0.03988408055755999</v>
+        <v>-0.01138894457081069</v>
       </c>
       <c r="F64">
-        <v>0.02225915494494772</v>
+        <v>-0.02540935273027617</v>
       </c>
       <c r="G64">
-        <v>0.0683363176371005</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.02062758958617164</v>
+      </c>
+      <c r="H64">
+        <v>0.02551911661676721</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.0129926475735377</v>
+        <v>-0.03714928388813295</v>
       </c>
       <c r="C65">
-        <v>0.002382075203601559</v>
+        <v>-0.000575622346300789</v>
       </c>
       <c r="D65">
-        <v>0.01326505314609755</v>
+        <v>-0.04154954950427252</v>
       </c>
       <c r="E65">
-        <v>0.01713477372585582</v>
+        <v>-0.006638090711951193</v>
       </c>
       <c r="F65">
-        <v>0.008095436037126319</v>
+        <v>-0.03725424930196093</v>
       </c>
       <c r="G65">
-        <v>-0.008089731534839587</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.003911485051998413</v>
+      </c>
+      <c r="H65">
+        <v>0.05963731570820035</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03669583963504348</v>
+        <v>-0.03260359636451184</v>
       </c>
       <c r="C66">
-        <v>-0.02510389039525139</v>
+        <v>0.008966481642411142</v>
       </c>
       <c r="D66">
-        <v>0.02539484497104543</v>
+        <v>-0.07523231335047191</v>
       </c>
       <c r="E66">
-        <v>0.04521488928754976</v>
+        <v>0.004951561023764939</v>
       </c>
       <c r="F66">
-        <v>0.0371888613655629</v>
+        <v>-0.06045976886273818</v>
       </c>
       <c r="G66">
-        <v>0.01111704997095957</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.04755975212676062</v>
+      </c>
+      <c r="H66">
+        <v>0.05875757060048162</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02063229759831242</v>
+        <v>-0.03976588745307629</v>
       </c>
       <c r="C67">
-        <v>-2.471728917807576e-05</v>
+        <v>0.02170789763047682</v>
       </c>
       <c r="D67">
-        <v>-0.01644176079442425</v>
+        <v>0.007946817320806075</v>
       </c>
       <c r="E67">
-        <v>-0.02209554128470993</v>
+        <v>-0.0003574195141493748</v>
       </c>
       <c r="F67">
-        <v>0.01939022265108029</v>
+        <v>-0.0115279591968508</v>
       </c>
       <c r="G67">
-        <v>-0.0193852317071805</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.01831197801790153</v>
+      </c>
+      <c r="H67">
+        <v>0.03395976372339941</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.08222107616731188</v>
+        <v>-0.1439343579860297</v>
       </c>
       <c r="C68">
-        <v>-0.05929674425570021</v>
+        <v>0.02678683170324183</v>
       </c>
       <c r="D68">
-        <v>-0.04084802708062879</v>
+        <v>0.2021009264345801</v>
       </c>
       <c r="E68">
-        <v>-0.1678809212221633</v>
+        <v>0.04141038003327946</v>
       </c>
       <c r="F68">
-        <v>0.06892734024261063</v>
+        <v>0.1007574646530054</v>
       </c>
       <c r="G68">
-        <v>-0.07728341008402813</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.01898997238342828</v>
+      </c>
+      <c r="H68">
+        <v>-0.04275367106194127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07085698867027623</v>
+        <v>-0.06022254362528162</v>
       </c>
       <c r="C69">
-        <v>-0.03168318789760356</v>
+        <v>0.03239333440843018</v>
       </c>
       <c r="D69">
-        <v>0.02646111792717482</v>
+        <v>-0.02917864632669962</v>
       </c>
       <c r="E69">
-        <v>0.005770982631269459</v>
+        <v>0.00464313325806103</v>
       </c>
       <c r="F69">
-        <v>0.01473193750557528</v>
+        <v>-0.03000664593477708</v>
       </c>
       <c r="G69">
-        <v>0.07887566330288015</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.001743487116088146</v>
+      </c>
+      <c r="H69">
+        <v>-0.009508323466788883</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1019585103393251</v>
+        <v>-0.1386123712293214</v>
       </c>
       <c r="C71">
-        <v>-0.06204211401339195</v>
+        <v>0.03508126094683212</v>
       </c>
       <c r="D71">
-        <v>-0.0210768874776113</v>
+        <v>0.1873708809930844</v>
       </c>
       <c r="E71">
-        <v>-0.2090249469914505</v>
+        <v>0.04112932798845063</v>
       </c>
       <c r="F71">
-        <v>0.09116226973664134</v>
+        <v>0.1069854593658989</v>
       </c>
       <c r="G71">
-        <v>-0.04844441834338447</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01770421269883531</v>
+      </c>
+      <c r="H71">
+        <v>-0.02563873292161008</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1068292654069638</v>
+        <v>-0.08931069702762183</v>
       </c>
       <c r="C72">
-        <v>-0.09779565607625434</v>
+        <v>0.04871175295597487</v>
       </c>
       <c r="D72">
-        <v>0.0213655524658032</v>
+        <v>-0.06242598862790213</v>
       </c>
       <c r="E72">
-        <v>0.08198241884913614</v>
+        <v>0.006410173048914589</v>
       </c>
       <c r="F72">
-        <v>0.08771998937178338</v>
+        <v>-0.1079109875308581</v>
       </c>
       <c r="G72">
-        <v>-0.1090815410374764</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.1003816349845766</v>
+      </c>
+      <c r="H72">
+        <v>0.1472763394357841</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2470202940826008</v>
+        <v>-0.2399639106581167</v>
       </c>
       <c r="C73">
-        <v>-0.07870358555860626</v>
+        <v>0.06389453883183235</v>
       </c>
       <c r="D73">
-        <v>0.0662185090968631</v>
+        <v>-0.05536389127032539</v>
       </c>
       <c r="E73">
-        <v>0.005036235026361432</v>
+        <v>0.08054850563544382</v>
       </c>
       <c r="F73">
-        <v>0.2026770375440115</v>
+        <v>-0.06906195889499567</v>
       </c>
       <c r="G73">
-        <v>-0.470921849883963</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1900156881408137</v>
+      </c>
+      <c r="H73">
+        <v>0.5074948685292269</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1252124950439367</v>
+        <v>-0.1182408951769453</v>
       </c>
       <c r="C74">
-        <v>-0.05131761704174739</v>
+        <v>0.0594530664147617</v>
       </c>
       <c r="D74">
-        <v>0.03724253659686803</v>
+        <v>-0.07706386745259777</v>
       </c>
       <c r="E74">
-        <v>0.02310412771896593</v>
+        <v>0.00506539962327778</v>
       </c>
       <c r="F74">
-        <v>-0.09497616974474438</v>
+        <v>-0.07772117451792658</v>
       </c>
       <c r="G74">
-        <v>-0.0202696344324978</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.07514677196555936</v>
+      </c>
+      <c r="H74">
+        <v>-0.00835461294949859</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.213643877171216</v>
+        <v>-0.2286032157198869</v>
       </c>
       <c r="C75">
-        <v>-0.1290337160363205</v>
+        <v>0.1169362273586664</v>
       </c>
       <c r="D75">
-        <v>0.06873886773260182</v>
+        <v>-0.1206501494436669</v>
       </c>
       <c r="E75">
-        <v>0.07385554369698286</v>
+        <v>0.01913693361680381</v>
       </c>
       <c r="F75">
-        <v>-0.1703059565124888</v>
+        <v>-0.1531955986846027</v>
       </c>
       <c r="G75">
-        <v>0.05297516118393591</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1613281723149111</v>
+      </c>
+      <c r="H75">
+        <v>-0.09137471874005415</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2679383482892642</v>
+        <v>-0.2092969491570722</v>
       </c>
       <c r="C76">
-        <v>-0.1362557902437164</v>
+        <v>0.1110322548697107</v>
       </c>
       <c r="D76">
-        <v>0.01367335965338086</v>
+        <v>-0.1077827384031739</v>
       </c>
       <c r="E76">
-        <v>0.04791122496387462</v>
+        <v>-0.02094803948492436</v>
       </c>
       <c r="F76">
-        <v>-0.19898437267783</v>
+        <v>-0.1453392456564229</v>
       </c>
       <c r="G76">
-        <v>0.06281274351704492</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.1743289684285295</v>
+      </c>
+      <c r="H76">
+        <v>-0.09258292950757056</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1386007265182675</v>
+        <v>-0.07663819117819229</v>
       </c>
       <c r="C77">
-        <v>0.01543315486005097</v>
+        <v>0.01467088312715088</v>
       </c>
       <c r="D77">
-        <v>0.06532859042378854</v>
+        <v>-0.07233079938223022</v>
       </c>
       <c r="E77">
-        <v>0.1178751111968342</v>
+        <v>0.01067524974030115</v>
       </c>
       <c r="F77">
-        <v>0.2277822957323634</v>
+        <v>-0.003704937674467378</v>
       </c>
       <c r="G77">
-        <v>0.1216806533797269</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.131842027879662</v>
+      </c>
+      <c r="H77">
+        <v>-0.06670531201484761</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.05236579228695627</v>
+        <v>-0.0356201298657783</v>
       </c>
       <c r="C78">
-        <v>-0.0190513642657386</v>
+        <v>0.01203532727271686</v>
       </c>
       <c r="D78">
-        <v>0.03541179560810168</v>
+        <v>-0.05798364923776076</v>
       </c>
       <c r="E78">
-        <v>0.1063292518187458</v>
+        <v>-0.006068528530657736</v>
       </c>
       <c r="F78">
-        <v>0.03161216107400655</v>
+        <v>-0.05187626999493646</v>
       </c>
       <c r="G78">
-        <v>0.06014120922972946</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.05358639977212037</v>
+      </c>
+      <c r="H78">
+        <v>0.02589950535101757</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2159997374522931</v>
+        <v>-0.1702670128118585</v>
       </c>
       <c r="C80">
-        <v>0.1312674010733388</v>
+        <v>0.06207183970112175</v>
       </c>
       <c r="D80">
-        <v>-0.9250836652060136</v>
+        <v>0.02086813431585553</v>
       </c>
       <c r="E80">
-        <v>0.2447980827120694</v>
+        <v>-0.9618004121760961</v>
       </c>
       <c r="F80">
-        <v>0.02887808446807893</v>
+        <v>0.1267461518149594</v>
       </c>
       <c r="G80">
-        <v>-0.03527890531186584</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.09484960455584417</v>
+      </c>
+      <c r="H80">
+        <v>0.009691166354591258</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1537257998100202</v>
+        <v>-0.1512645443859008</v>
       </c>
       <c r="C81">
-        <v>-0.09772108578030342</v>
+        <v>0.07654712045431381</v>
       </c>
       <c r="D81">
-        <v>0.02163654242906091</v>
+        <v>-0.07302769648348781</v>
       </c>
       <c r="E81">
-        <v>0.04781445292078065</v>
+        <v>-0.002364892611461639</v>
       </c>
       <c r="F81">
-        <v>-0.1733028141815536</v>
+        <v>-0.09913160520673678</v>
       </c>
       <c r="G81">
-        <v>0.02001230251045175</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.1053722262964458</v>
+      </c>
+      <c r="H81">
+        <v>-0.06657740640691878</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.05265245141488097</v>
+        <v>-0.03845278286486521</v>
       </c>
       <c r="C83">
-        <v>0.00945522102989387</v>
+        <v>0.009470258405281918</v>
       </c>
       <c r="D83">
-        <v>0.03844410605617651</v>
+        <v>-0.02146395260807748</v>
       </c>
       <c r="E83">
-        <v>0.03587840484836791</v>
+        <v>0.01187354801513796</v>
       </c>
       <c r="F83">
-        <v>0.0599352498178648</v>
+        <v>-0.01135400668581581</v>
       </c>
       <c r="G83">
-        <v>0.04911812261859398</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.05816472655335205</v>
+      </c>
+      <c r="H83">
+        <v>0.01332616866002699</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2309745270035249</v>
+        <v>-0.2150869507462355</v>
       </c>
       <c r="C85">
-        <v>-0.1207871485804881</v>
+        <v>0.09795161467173397</v>
       </c>
       <c r="D85">
-        <v>0.04326418752914353</v>
+        <v>-0.1265466823293822</v>
       </c>
       <c r="E85">
-        <v>0.04470678650482136</v>
+        <v>0.01077523648923178</v>
       </c>
       <c r="F85">
-        <v>-0.1918590084320239</v>
+        <v>-0.1377193587689092</v>
       </c>
       <c r="G85">
-        <v>0.08182833396989417</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1692504301849692</v>
+      </c>
+      <c r="H85">
+        <v>-0.06175471211061278</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.0006946604502199675</v>
+        <v>-0.01570471480642265</v>
       </c>
       <c r="C86">
-        <v>0.009084152209461863</v>
+        <v>-0.0005752354599075714</v>
       </c>
       <c r="D86">
-        <v>0.003024879317077097</v>
+        <v>-0.006117903177855526</v>
       </c>
       <c r="E86">
-        <v>0.05062150628130403</v>
+        <v>0.009318099412949898</v>
       </c>
       <c r="F86">
-        <v>0.06907598528794175</v>
+        <v>0.00149817842643629</v>
       </c>
       <c r="G86">
-        <v>0.02445646796213266</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.08705529934370601</v>
+      </c>
+      <c r="H86">
+        <v>0.03618631510420024</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03104525046130211</v>
+        <v>-0.02874622855284101</v>
       </c>
       <c r="C87">
-        <v>-0.009343013854400744</v>
+        <v>0.004837096579089407</v>
       </c>
       <c r="D87">
-        <v>0.01218780652958165</v>
+        <v>-0.02712880729215138</v>
       </c>
       <c r="E87">
-        <v>0.03452665539561348</v>
+        <v>8.03555419588034e-05</v>
       </c>
       <c r="F87">
-        <v>0.08174394733174954</v>
+        <v>-0.02585509761487186</v>
       </c>
       <c r="G87">
-        <v>0.001665714189627008</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.09443280486168022</v>
+      </c>
+      <c r="H87">
+        <v>0.02553618061966944</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.008718627304084086</v>
+        <v>-0.03873843934692951</v>
       </c>
       <c r="C88">
-        <v>-0.01445185574875695</v>
+        <v>-0.007934574685996469</v>
       </c>
       <c r="D88">
-        <v>-0.02444207694954797</v>
+        <v>0.004346118399986699</v>
       </c>
       <c r="E88">
-        <v>-0.006040374495705854</v>
+        <v>-0.007530307577022454</v>
       </c>
       <c r="F88">
-        <v>0.03464267483340736</v>
+        <v>-0.01292564629086407</v>
       </c>
       <c r="G88">
-        <v>0.06675962675013947</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.001377995148133219</v>
+      </c>
+      <c r="H88">
+        <v>0.00930768178302272</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1243082823536474</v>
+        <v>-0.2230224057442532</v>
       </c>
       <c r="C89">
-        <v>-0.08822010457956361</v>
+        <v>0.05285011390605163</v>
       </c>
       <c r="D89">
-        <v>-0.02969718422115535</v>
+        <v>0.3252814202459193</v>
       </c>
       <c r="E89">
-        <v>-0.2887474376189659</v>
+        <v>0.08750873654133201</v>
       </c>
       <c r="F89">
-        <v>0.159864841629427</v>
+        <v>0.1467603122763784</v>
       </c>
       <c r="G89">
-        <v>-0.01795182197911701</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.0032749237704304</v>
+      </c>
+      <c r="H89">
+        <v>-0.03261100659365452</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1107626542310167</v>
+        <v>-0.1772321388668462</v>
       </c>
       <c r="C90">
-        <v>-0.08517047900201237</v>
+        <v>0.04245116777332624</v>
       </c>
       <c r="D90">
-        <v>-0.0758649009870724</v>
+        <v>0.2853661870300583</v>
       </c>
       <c r="E90">
-        <v>-0.2813342855382523</v>
+        <v>0.05961328256313918</v>
       </c>
       <c r="F90">
-        <v>0.1144782102893062</v>
+        <v>0.1446946500163964</v>
       </c>
       <c r="G90">
-        <v>-0.03872941580589497</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.03274736808690729</v>
+      </c>
+      <c r="H90">
+        <v>-0.04705793191486796</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2873855793307791</v>
+        <v>-0.2315145679140904</v>
       </c>
       <c r="C91">
-        <v>-0.1085094167706066</v>
+        <v>0.1164467638904368</v>
       </c>
       <c r="D91">
-        <v>0.06033844510832227</v>
+        <v>-0.1216839042498328</v>
       </c>
       <c r="E91">
-        <v>0.03277897372024042</v>
+        <v>0.01024908053719559</v>
       </c>
       <c r="F91">
-        <v>-0.2587111918288321</v>
+        <v>-0.1387559273766532</v>
       </c>
       <c r="G91">
-        <v>0.034757214257149</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.2105865002208612</v>
+      </c>
+      <c r="H91">
+        <v>-0.1206334041292449</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1880101352408014</v>
+        <v>-0.2297114206732531</v>
       </c>
       <c r="C92">
-        <v>-0.08848207494954194</v>
+        <v>0.1084486588358107</v>
       </c>
       <c r="D92">
-        <v>-0.1102931495491589</v>
+        <v>0.2314613323853755</v>
       </c>
       <c r="E92">
-        <v>-0.4704137895970377</v>
+        <v>0.04047433451295327</v>
       </c>
       <c r="F92">
-        <v>0.06219616443638438</v>
+        <v>0.1185069342887223</v>
       </c>
       <c r="G92">
-        <v>0.5058925441598987</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.04365583310932272</v>
+      </c>
+      <c r="H92">
+        <v>-0.1372833583085194</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1217467711470294</v>
+        <v>-0.1999866645123462</v>
       </c>
       <c r="C93">
-        <v>-0.06428888757472101</v>
+        <v>0.05427542598094106</v>
       </c>
       <c r="D93">
-        <v>-0.09008280722543374</v>
+        <v>0.3022033085491688</v>
       </c>
       <c r="E93">
-        <v>-0.3889688804484936</v>
+        <v>0.07413204939245004</v>
       </c>
       <c r="F93">
-        <v>0.08054463019078428</v>
+        <v>0.1816541801049368</v>
       </c>
       <c r="G93">
-        <v>-0.1048492687124774</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.04374169610322515</v>
+      </c>
+      <c r="H93">
+        <v>0.01266994814362899</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2637017216720783</v>
+        <v>-0.2541941654464975</v>
       </c>
       <c r="C94">
-        <v>-0.1485435551974049</v>
+        <v>0.1075496418031047</v>
       </c>
       <c r="D94">
-        <v>0.03050850841775243</v>
+        <v>-0.1038172554781129</v>
       </c>
       <c r="E94">
-        <v>0.02706284305033681</v>
+        <v>0.03089986819560445</v>
       </c>
       <c r="F94">
-        <v>-0.3041138309491274</v>
+        <v>-0.1618436226649232</v>
       </c>
       <c r="G94">
-        <v>-0.02661461215401472</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.2151883899383872</v>
+      </c>
+      <c r="H94">
+        <v>-0.1350340671029602</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07712663022625703</v>
+        <v>-0.068513539584607</v>
       </c>
       <c r="C95">
-        <v>-0.008690380870289885</v>
+        <v>0.03750373930951127</v>
       </c>
       <c r="D95">
-        <v>0.06524910924879547</v>
+        <v>-0.08198878632779379</v>
       </c>
       <c r="E95">
-        <v>0.06922940392571587</v>
+        <v>0.06889371260708077</v>
       </c>
       <c r="F95">
-        <v>0.03129016131652718</v>
+        <v>-0.02597359866317011</v>
       </c>
       <c r="G95">
-        <v>0.2352483254618009</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.06033854355579039</v>
+      </c>
+      <c r="H95">
+        <v>-0.0006994555204882602</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1880518831674661</v>
+        <v>-0.1784309887697227</v>
       </c>
       <c r="C98">
-        <v>-0.04768284322494367</v>
+        <v>0.08063928738907214</v>
       </c>
       <c r="D98">
-        <v>0.05485379807978129</v>
+        <v>-0.03588656893319654</v>
       </c>
       <c r="E98">
-        <v>-0.02840449267673812</v>
+        <v>0.05404645230712412</v>
       </c>
       <c r="F98">
-        <v>0.08160830946046554</v>
+        <v>-0.0328532905591394</v>
       </c>
       <c r="G98">
-        <v>-0.3225428701866828</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.1592413172406968</v>
+      </c>
+      <c r="H98">
+        <v>0.364276124075791</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002084012525704465</v>
+        <v>-0.01336591802011854</v>
       </c>
       <c r="C101">
-        <v>-0.02410421795103017</v>
+        <v>0.0003041861931676649</v>
       </c>
       <c r="D101">
-        <v>0.01043218664378563</v>
+        <v>-0.004961710198791332</v>
       </c>
       <c r="E101">
-        <v>0.1301170505881568</v>
+        <v>-0.006310183448362287</v>
       </c>
       <c r="F101">
-        <v>0.136109565592362</v>
+        <v>-0.03290514721591075</v>
       </c>
       <c r="G101">
-        <v>0.119954011803975</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.09904751385191073</v>
+      </c>
+      <c r="H101">
+        <v>-0.07411096091800505</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.09462804213833714</v>
+        <v>-0.1053832847308111</v>
       </c>
       <c r="C102">
-        <v>-0.03453454007253704</v>
+        <v>0.04024964245567384</v>
       </c>
       <c r="D102">
-        <v>0.01278391034941571</v>
+        <v>-0.06474536934397132</v>
       </c>
       <c r="E102">
-        <v>0.05881051932453524</v>
+        <v>-0.002764919756034252</v>
       </c>
       <c r="F102">
-        <v>-0.1354297303528777</v>
+        <v>-0.06970985112517464</v>
       </c>
       <c r="G102">
-        <v>0.07349328014796919</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.095745474642749</v>
+      </c>
+      <c r="H102">
+        <v>-0.05504337524421056</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02487661790328304</v>
+        <v>-0.02113223693132101</v>
       </c>
       <c r="C103">
-        <v>-0.01350695438943951</v>
+        <v>0.009313971915489985</v>
       </c>
       <c r="D103">
-        <v>0.01113472212563101</v>
+        <v>-0.0130029915873592</v>
       </c>
       <c r="E103">
-        <v>0.002410517048529128</v>
+        <v>-0.006217669948148059</v>
       </c>
       <c r="F103">
-        <v>-0.01303543300081822</v>
+        <v>-0.01841885502786853</v>
       </c>
       <c r="G103">
-        <v>0.02333931201966277</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.006660157491906646</v>
+      </c>
+      <c r="H103">
+        <v>-0.01034907714638442</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.3267064948603226</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9246425461506022</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.04756762721092526</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02469155576557401</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1555436777108429</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.03977707323311198</v>
+      </c>
+      <c r="H104">
+        <v>-0.03012961031929472</v>
       </c>
     </row>
   </sheetData>
